--- a/DATA_goal/Junction_Flooding_454.xlsx
+++ b/DATA_goal/Junction_Flooding_454.xlsx
@@ -446,8 +446,8 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
@@ -462,12 +462,12 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -655,52 +655,52 @@
         <v>44785.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.87</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
@@ -709,49 +709,49 @@
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.39</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.55</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
@@ -759,52 +759,52 @@
         <v>44785.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.29</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.62</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.44</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.41</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0</v>
@@ -813,49 +813,49 @@
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.42</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.14</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.42</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44785.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.02</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.48</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.13</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.25</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.98</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.54</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.2</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.48</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.39</v>
+        <v>43.86</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.27</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.35</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.01</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.52</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.47</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.74</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.32</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.95</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44785.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.76</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.34</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.09</v>
+        <v>20.89</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.12</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.27</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.87</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.73</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>8.4</v>
+        <v>84.02</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.72</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.72</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.15</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.71</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.04</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.9</v>
+        <v>19.04</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_454.xlsx
+++ b/DATA_goal/Junction_Flooding_454.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44785.54861111111</v>
+        <v>45135.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.29</v>
+        <v>13.798</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.74</v>
+        <v>9.137</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.12</v>
+        <v>3.527</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.83</v>
+        <v>29.879</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.42</v>
+        <v>22.444</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.98</v>
+        <v>10.657</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.64</v>
+        <v>31.967</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.33</v>
+        <v>16.87</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.54</v>
+        <v>6.742</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.44</v>
+        <v>10.011</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.28</v>
+        <v>11.733</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.08</v>
+        <v>12.516</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.42</v>
+        <v>3.497</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.903</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.87</v>
+        <v>14.966</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.51</v>
+        <v>9.704000000000001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.059</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.672</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.39</v>
+        <v>158.575</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.71</v>
+        <v>30.182</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.12</v>
+        <v>10.064</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.55</v>
+        <v>19.331</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.64</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.82</v>
+        <v>2.87</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.31</v>
+        <v>17.102</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.97</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.72</v>
+        <v>8.15</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.59</v>
+        <v>9.673999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.43</v>
+        <v>12.058</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.09</v>
+        <v>3.072</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.77</v>
+        <v>28.934</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.19</v>
+        <v>5.407</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.45</v>
+        <v>12.581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44785.55555555555</v>
+        <v>45135.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.11</v>
+        <v>8.055999999999999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.74</v>
+        <v>5.55</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.481</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.29</v>
+        <v>17.742</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.62</v>
+        <v>13.453</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.98</v>
+        <v>6.218</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.44</v>
+        <v>25.64</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.34</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.64</v>
+        <v>4.098</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.21</v>
+        <v>5.85</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.61</v>
+        <v>7.031</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1</v>
+        <v>7.546</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.36</v>
+        <v>2.055</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.86</v>
+        <v>6.391</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.41</v>
+        <v>8.865</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.797</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.775</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>9.42</v>
+        <v>89.967</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.11</v>
+        <v>17.97</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.39</v>
+        <v>5.899</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.77</v>
+        <v>11.581</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.39</v>
+        <v>5.976</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.88</v>
+        <v>1.459</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.14</v>
+        <v>12.633</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.87</v>
+        <v>5.211</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.67</v>
+        <v>4.826</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.2</v>
+        <v>5.689</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.27</v>
+        <v>7.212</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.82</v>
+        <v>1.198</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.42</v>
+        <v>23.873</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.27</v>
+        <v>3.143</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.65</v>
+        <v>7.376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44785.5625</v>
+        <v>45135.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.1</v>
+        <v>5.189</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.02</v>
+        <v>3.609</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.21</v>
+        <v>0.928</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.48</v>
+        <v>11.507</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.13</v>
+        <v>8.673</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.33</v>
+        <v>4</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>10.25</v>
+        <v>17.765</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.98</v>
+        <v>6.399</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.23</v>
+        <v>2.659</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.54</v>
+        <v>3.731</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.04</v>
+        <v>4.573</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.78</v>
+        <v>4.936</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.08</v>
+        <v>1.331</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.2</v>
+        <v>4.136</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.28</v>
+        <v>5.734</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.48</v>
+        <v>3.796</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.901</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.483</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>43.86</v>
+        <v>55.627</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.27</v>
+        <v>11.656</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.35</v>
+        <v>3.817</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.01</v>
+        <v>7.497</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.52</v>
+        <v>3.879</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.953</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.47</v>
+        <v>8.465</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.74</v>
+        <v>3.372</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.32</v>
+        <v>3.145</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.03</v>
+        <v>3.694</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.95</v>
+        <v>4.695</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.746</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>16.48</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.56</v>
+        <v>2.011</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.13</v>
+        <v>4.773</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44785.56944444445</v>
+        <v>45135.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.52</v>
+        <v>18.17</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.61</v>
+        <v>13.46</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.32</v>
+        <v>1.16</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.76</v>
+        <v>39.73</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.34</v>
+        <v>32.21</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.01</v>
+        <v>14.24</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.89</v>
+        <v>51.89</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>22.11</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.12</v>
+        <v>9.75</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.27</v>
+        <v>14.4</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.92</v>
+        <v>15.91</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.94</v>
+        <v>16.93</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.93</v>
+        <v>4.59</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.87</v>
+        <v>14.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.94</v>
+        <v>20.26</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.73</v>
+        <v>12.12</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.77</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>84.02</v>
+        <v>210.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>16.72</v>
+        <v>39.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.72</v>
+        <v>13.19</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.15</v>
+        <v>26.69</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.12</v>
+        <v>14.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.14</v>
+        <v>2.18</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.71</v>
+        <v>25.79</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.89</v>
+        <v>11.65</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.22</v>
+        <v>10.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.21</v>
+        <v>12.19</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.04</v>
+        <v>16.66</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.04</v>
+        <v>47.08</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3</v>
+        <v>7.39</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44785.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.05</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.04</v>
+        <v>16.49</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_454.xlsx
+++ b/DATA_goal/Junction_Flooding_454.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45135.50694444445</v>
+        <v>44785.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.798</v>
+        <v>1.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.137</v>
+        <v>0.735</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.527</v>
+        <v>0.124</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>29.879</v>
+        <v>4.827</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>22.444</v>
+        <v>1.423</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.657</v>
+        <v>0.979</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>31.967</v>
+        <v>2.643</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.87</v>
+        <v>1.329</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.742</v>
+        <v>0.541</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.011</v>
+        <v>1.443</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.733</v>
+        <v>2.279</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.516</v>
+        <v>1.076</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.497</v>
+        <v>0.423</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.903</v>
+        <v>1.072</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.966</v>
+        <v>3.872</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.704000000000001</v>
+        <v>0.514</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.059</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.672</v>
+        <v>0.001</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>158.575</v>
+        <v>14.386</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>30.182</v>
+        <v>3.712</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.064</v>
+        <v>2.121</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>19.331</v>
+        <v>1.552</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.888999999999999</v>
+        <v>1.645</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.87</v>
+        <v>1.823</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.102</v>
+        <v>2.314</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.888999999999999</v>
+        <v>0.973</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.15</v>
+        <v>0.721</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.673999999999999</v>
+        <v>1.589</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.058</v>
+        <v>1.435</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.072</v>
+        <v>2.091</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>28.934</v>
+        <v>2.771</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.407</v>
+        <v>0.187</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.581</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45135.51388888889</v>
+        <v>44785.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.055999999999999</v>
+        <v>1.113</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.55</v>
+        <v>0.739</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.481</v>
+        <v>0.121</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>17.742</v>
+        <v>3.291</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>13.453</v>
+        <v>1.617</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.218</v>
+        <v>0.98</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>25.64</v>
+        <v>3.444</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.888999999999999</v>
+        <v>1.339</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.098</v>
+        <v>0.641</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.85</v>
+        <v>1.206</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.031</v>
+        <v>1.608</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.546</v>
+        <v>0.997</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.055</v>
+        <v>0.359</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.391</v>
+        <v>0.865</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.865</v>
+        <v>2.407</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.797</v>
+        <v>0.496</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.775</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>89.967</v>
+        <v>9.419</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>17.97</v>
+        <v>3.105</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.899</v>
+        <v>1.388</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>11.581</v>
+        <v>1.769</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.976</v>
+        <v>1.386</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.459</v>
+        <v>0.878</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.633</v>
+        <v>2.144</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.211</v>
+        <v>0.867</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.826</v>
+        <v>0.669</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.689</v>
+        <v>1.197</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.212</v>
+        <v>1.267</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.198</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>23.873</v>
+        <v>3.421</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.143</v>
+        <v>0.268</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.376</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45135.52083333334</v>
+        <v>44785.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.189</v>
+        <v>4.104</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.609</v>
+        <v>3.022</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.928</v>
+        <v>0.215</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>11.507</v>
+        <v>9.476000000000001</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.673</v>
+        <v>7.13</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4</v>
+        <v>3.328</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17.765</v>
+        <v>10.246</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.399</v>
+        <v>4.983</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.659</v>
+        <v>2.235</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.731</v>
+        <v>3.542</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.573</v>
+        <v>4.037</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.936</v>
+        <v>3.782</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.331</v>
+        <v>1.078</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.136</v>
+        <v>3.195</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.734</v>
+        <v>5.28</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.796</v>
+        <v>2.482</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.901</v>
+        <v>0.045</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.483</v>
+        <v>0.035</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>55.627</v>
+        <v>43.864</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>11.656</v>
+        <v>9.273</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.817</v>
+        <v>3.351</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.497</v>
+        <v>6.013</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.879</v>
+        <v>3.523</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.953</v>
+        <v>0.914</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.465</v>
+        <v>5.469</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.372</v>
+        <v>2.737</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.145</v>
+        <v>2.319</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.694</v>
+        <v>3.031</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.695</v>
+        <v>3.947</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.746</v>
+        <v>0.505</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>16.48</v>
+        <v>9.302</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.011</v>
+        <v>1.562</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.773</v>
+        <v>4.131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45135.52777777778</v>
+        <v>44785.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.17</v>
+        <v>7.522</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.46</v>
+        <v>5.606</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.16</v>
+        <v>0.322</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>39.73</v>
+        <v>16.761</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>32.21</v>
+        <v>13.34</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.24</v>
+        <v>6.006</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>51.89</v>
+        <v>20.888</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.11</v>
+        <v>9.124000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.75</v>
+        <v>4.12</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.4</v>
+        <v>6.267</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.91</v>
+        <v>6.924</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.93</v>
+        <v>6.942</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.59</v>
+        <v>1.929</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.29</v>
+        <v>5.869</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.26</v>
+        <v>8.944000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.12</v>
+        <v>4.727</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.078</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.133</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>210.12</v>
+        <v>84.02200000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>39.85</v>
+        <v>16.719</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.19</v>
+        <v>5.722</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.69</v>
+        <v>11.15</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.02</v>
+        <v>6.119</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.18</v>
+        <v>1.136</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.79</v>
+        <v>10.707</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.65</v>
+        <v>4.893</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.36</v>
+        <v>4.22</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.19</v>
+        <v>5.208</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.66</v>
+        <v>7.044</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.366</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>47.08</v>
+        <v>19.039</v>
       </c>
       <c r="AG5" s="4" t="n">
+        <v>3.002</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>7.111</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44785.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="F6" s="4" t="n">
         <v>7.39</v>
       </c>
-      <c r="AH5" s="4" t="n">
-        <v>16.49</v>
+      <c r="G6" s="4" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>44.05</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.04</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_454.xlsx
+++ b/DATA_goal/Junction_Flooding_454.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44785.54861111111</v>
+        <v>45135.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.29</v>
+        <v>13.798</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.735</v>
+        <v>9.137</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.124</v>
+        <v>3.527</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.827</v>
+        <v>29.879</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.423</v>
+        <v>22.444</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.979</v>
+        <v>10.657</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.643</v>
+        <v>31.967</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.329</v>
+        <v>16.87</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.541</v>
+        <v>6.742</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.443</v>
+        <v>10.011</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.279</v>
+        <v>11.733</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.076</v>
+        <v>12.516</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.423</v>
+        <v>3.497</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.072</v>
+        <v>10.903</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.872</v>
+        <v>14.966</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.514</v>
+        <v>9.704000000000001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.059</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.001</v>
+        <v>1.672</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.386</v>
+        <v>158.575</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.712</v>
+        <v>30.182</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.121</v>
+        <v>10.064</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.552</v>
+        <v>19.331</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.645</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.823</v>
+        <v>2.87</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.314</v>
+        <v>17.102</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.973</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.721</v>
+        <v>8.15</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.589</v>
+        <v>9.673999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.435</v>
+        <v>12.058</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.091</v>
+        <v>3.072</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.771</v>
+        <v>28.934</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.187</v>
+        <v>5.407</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.45</v>
+        <v>12.581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44785.55555555555</v>
+        <v>45135.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.113</v>
+        <v>8.055999999999999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.739</v>
+        <v>5.55</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.121</v>
+        <v>1.481</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.291</v>
+        <v>17.742</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.617</v>
+        <v>13.453</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.98</v>
+        <v>6.218</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.444</v>
+        <v>25.64</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.339</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.641</v>
+        <v>4.098</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.206</v>
+        <v>5.85</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.608</v>
+        <v>7.031</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.997</v>
+        <v>7.546</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.359</v>
+        <v>2.055</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.865</v>
+        <v>6.391</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.407</v>
+        <v>8.865</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.496</v>
+        <v>5.797</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.775</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>9.419</v>
+        <v>89.967</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.105</v>
+        <v>17.97</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.388</v>
+        <v>5.899</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.769</v>
+        <v>11.581</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.386</v>
+        <v>5.976</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.878</v>
+        <v>1.459</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.144</v>
+        <v>12.633</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.867</v>
+        <v>5.211</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.669</v>
+        <v>4.826</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.197</v>
+        <v>5.689</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.267</v>
+        <v>7.212</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.8169999999999999</v>
+        <v>1.198</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.421</v>
+        <v>23.873</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.268</v>
+        <v>3.143</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.65</v>
+        <v>7.376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44785.5625</v>
+        <v>45135.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.104</v>
+        <v>5.189</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.022</v>
+        <v>3.609</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.215</v>
+        <v>0.928</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.476000000000001</v>
+        <v>11.507</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.13</v>
+        <v>8.673</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.328</v>
+        <v>4</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>10.246</v>
+        <v>17.765</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.983</v>
+        <v>6.399</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.235</v>
+        <v>2.659</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.542</v>
+        <v>3.731</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.037</v>
+        <v>4.573</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.782</v>
+        <v>4.936</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.078</v>
+        <v>1.331</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.195</v>
+        <v>4.136</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.28</v>
+        <v>5.734</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.482</v>
+        <v>3.796</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.045</v>
+        <v>0.901</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.035</v>
+        <v>0.483</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>43.864</v>
+        <v>55.627</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.273</v>
+        <v>11.656</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.351</v>
+        <v>3.817</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.013</v>
+        <v>7.497</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.523</v>
+        <v>3.879</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.914</v>
+        <v>0.953</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.469</v>
+        <v>8.465</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.737</v>
+        <v>3.372</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.319</v>
+        <v>3.145</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.031</v>
+        <v>3.694</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.947</v>
+        <v>4.695</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.505</v>
+        <v>0.746</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>9.302</v>
+        <v>16.48</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.562</v>
+        <v>2.011</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.131</v>
+        <v>4.773</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44785.56944444445</v>
+        <v>45135.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.522</v>
+        <v>18.17</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.606</v>
+        <v>13.46</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.322</v>
+        <v>1.16</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.761</v>
+        <v>39.73</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.34</v>
+        <v>32.21</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.006</v>
+        <v>14.24</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.888</v>
+        <v>51.89</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.124000000000001</v>
+        <v>22.11</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.12</v>
+        <v>9.75</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.267</v>
+        <v>14.4</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.924</v>
+        <v>15.91</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.942</v>
+        <v>16.93</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.929</v>
+        <v>4.59</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.869</v>
+        <v>14.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.944000000000001</v>
+        <v>20.26</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.727</v>
+        <v>12.12</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.078</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.133</v>
+        <v>0.77</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>84.02200000000001</v>
+        <v>210.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>16.719</v>
+        <v>39.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.722</v>
+        <v>13.19</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.15</v>
+        <v>26.69</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.119</v>
+        <v>14.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.136</v>
+        <v>2.18</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.707</v>
+        <v>25.79</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.893</v>
+        <v>11.65</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.22</v>
+        <v>10.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.208</v>
+        <v>12.19</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.044</v>
+        <v>16.66</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.366</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.039</v>
+        <v>47.08</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.002</v>
+        <v>7.39</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.111</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44785.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.05</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.04</v>
+        <v>16.49</v>
       </c>
     </row>
   </sheetData>
